--- a/clase_11.xlsx
+++ b/clase_11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ddebc70e9326b3f/Escritorio/.me/inferencia-estadistica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{40918B81-4ABE-4FCC-BA8C-216C75F7C0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4404B110-F476-4072-BFAE-D42BADA35378}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{40918B81-4ABE-4FCC-BA8C-216C75F7C0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B851D0F-AF05-47B5-96D7-72C3795802CF}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9420" xr2:uid="{A81405DA-3E71-42DE-824A-0EA80B9ACF3D}"/>
+    <workbookView xWindow="2748" yWindow="636" windowWidth="17280" windowHeight="9420" activeTab="4" xr2:uid="{A81405DA-3E71-42DE-824A-0EA80B9ACF3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio_1" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD5CF09-404C-4E96-98A0-3CB3FE891C61}">
   <dimension ref="A3:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -726,7 +726,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,7 +820,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -890,7 +890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE12B94-A4FF-44C4-8C27-CCE26B8ACE59}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
